--- a/sample/module/xlsx_word/Expenses04.xlsx
+++ b/sample/module/xlsx_word/Expenses04.xlsx
@@ -20,7 +20,7 @@
   </si>
   <si>
     <t xml:space="preserve">              参数
-  记录</t>
+      记录</t>
   </si>
   <si>
     <t>name</t>
